--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value594.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value594.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.321144510979035</v>
+        <v>1.072064399719238</v>
       </c>
       <c r="B1">
-        <v>1.399470697266975</v>
+        <v>1.716970443725586</v>
       </c>
       <c r="C1">
-        <v>1.353235493974419</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.599090559192329</v>
+        <v>1.853051543235779</v>
       </c>
       <c r="E1">
-        <v>2.192538220033629</v>
+        <v>1.158736109733582</v>
       </c>
     </row>
   </sheetData>
